--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Tong hop theo doi tuong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Tong hop theo doi tuong\Tong hop theo MPT doi tuong CustomizeHoangTran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="AR07100_HT" sheetId="1" r:id="rId1"/>
-    <sheet name="Example" sheetId="2" r:id="rId2"/>
+    <sheet name="Man hinh Search" sheetId="3" r:id="rId1"/>
+    <sheet name="AR0710_HT" sheetId="1" r:id="rId2"/>
+    <sheet name="Example" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>Admins</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>TT</t>
   </si>
@@ -155,6 +156,48 @@
   </si>
   <si>
     <t xml:space="preserve">Mã phân tích đối tượng </t>
+  </si>
+  <si>
+    <t>Màn hình Search theo yêu cầu (CustomizeHoangTran)</t>
+  </si>
+  <si>
+    <t>Thèo Kỳ:</t>
+  </si>
+  <si>
+    <t>Từ ngày:</t>
+  </si>
+  <si>
+    <t>Đến ngày:</t>
+  </si>
+  <si>
+    <t>Đổ dữ liệu vào Combobox Mã phân tích theo đối tượng
+'
+Select AnaID, AnaName 
+From AT1015
+where DivisionID=@DivisionID AND AnaTypeID='O05' 
+'
+(@DivisionID =[Biến môi trường]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Vào Bttn In Thực hiện câu @SQL(chạy Store AP0710_HT) để load Sheet AR0710_HT 
+'EXEC AP0710_HT
+( @DivisionID       AS NVARCHAR(50),
+    @FromObjectID     AS NVARCHAR(50),
+    @ToObjectID       AS NVARCHAR(50),
+    @FromInventoryID  AS NVARCHAR(50),
+    @ToInventoryID    AS NVARCHAR(50),
+    @FromMonth        AS INT,
+    @FromYear         AS INT,
+    @ToMonth          AS INT,
+    @ToYear           AS INT,
+    @FromDate         AS DATETIME,
+    @ToDate           AS DATETIME,
+    @IsDate           AS TINYINT,
+    @Isbottle         AS TINYINT,
+ @FromO05ID        AS NVarchar(250),
+ @ToO05ID    AS NVarchar(250))
+'
+</t>
   </si>
 </sst>
 </file>
@@ -165,7 +208,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +263,19 @@
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -295,7 +351,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,6 +393,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -357,6 +435,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="1076325"/>
+          <a:ext cx="5591175" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,11 +759,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L6" sqref="L6:S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="4" spans="3:19" s="21" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="3:19" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="3:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="3:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="3:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="3:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="L4:S4"/>
+    <mergeCell ref="L6:S13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,128 +923,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:8" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Tong hop theo doi tuong\Tong hop theo MPT doi tuong CustomizeHoangTran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Tong hop theo doi tuong\Tong hop theo MPT doi tuong CustomizeHoangTran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -388,33 +388,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -441,20 +441,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
+      <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>657225</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -474,8 +474,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="819150" y="1076325"/>
-          <a:ext cx="5591175" cy="3524250"/>
+          <a:off x="533400" y="1095375"/>
+          <a:ext cx="5505450" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:S13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,119 +777,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="4" spans="3:19" s="21" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="20" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="4" spans="3:19" s="16" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" spans="3:19" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="3:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="3:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="3:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="3:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="3:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -923,40 +923,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
@@ -1077,24 +1077,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Tong hop theo doi tuong\Tong hop theo MPT doi tuong CustomizeHoangTran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Tong hop theo doi tuong\Tong hop theo MPT doi tuong CustomizeHoangTran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -439,61 +439,71 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="533400" y="1095375"/>
-          <a:ext cx="5505450" cy="3457575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>600075</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -759,11 +769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +909,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>600075</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Tong hop theo doi tuong/Tong hop theo MPT doi tuong CustomizeHoangTran/AR0710_HT.xlsx
@@ -193,7 +193,6 @@
     @FromDate         AS DATETIME,
     @ToDate           AS DATETIME,
     @IsDate           AS TINYINT,
-    @Isbottle         AS TINYINT,
  @FromO05ID        AS NVarchar(250),
  @ToO05ID    AS NVarchar(250))
 '
@@ -446,20 +445,20 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>600075</xdr:rowOff>
+          <xdr:rowOff>695325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+            <xdr:cNvPr id="3074" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
+                  <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -773,7 +772,7 @@
   <dimension ref="C1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,27 +912,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId3">
+        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>504825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>600075</xdr:rowOff>
+                <xdr:rowOff>695325</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="3074" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
